--- a/output/StructureDefinition-ncdth-encounter.xlsx
+++ b/output/StructureDefinition-ncdth-encounter.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$82</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2883" uniqueCount="513">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NCD Thailand Encounter Profile</t>
+    <t>NCD TH Encounter Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:05:10+07:00</t>
+    <t>2022-02-22T23:30:09+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -484,6 +487,202 @@
     <t>PV1-19</t>
   </si>
   <si>
+    <t>Encounter.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
     <t>Encounter.status</t>
   </si>
   <si>
@@ -494,9 +693,6 @@
   </si>
   <si>
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>Current state of the encounter.</t>
@@ -533,28 +729,10 @@
     <t>The current status is always found in the current version of the resource, not the status history.</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Encounter.statusHistory.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Encounter.statusHistory.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Encounter.statusHistory.modifierExtension</t>
@@ -580,10 +758,6 @@
     <t>Encounter.statusHistory.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>The time that the episode was in the specified status</t>
   </si>
   <si>
@@ -603,9 +777,6 @@
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Classification of the encounter.</t>
   </si>
   <si>
@@ -658,10 +829,6 @@
   </si>
   <si>
     <t>Encounter.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Specific type of encounter</t>
@@ -1398,10 +1565,6 @@
   </si>
   <si>
     <t>Encounter.serviceProvider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>The organization (facility) responsible for this encounter</t>
@@ -1566,6 +1729,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1742,7 +1920,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM74"/>
+  <dimension ref="A1:AM82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1774,11 +1952,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="74.56640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="97.60546875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.8203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.81640625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="41.0625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="46.171875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1787,7 +1965,7 @@
     <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="91.625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.15234375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="188.9140625" customWidth="true" bestFit="true"/>
   </cols>
@@ -1911,7 +2089,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2020,7 +2198,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -2131,7 +2309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -2240,7 +2418,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -2351,7 +2529,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -2462,7 +2640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>114</v>
       </c>
@@ -2573,7 +2751,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>122</v>
       </c>
@@ -2684,7 +2862,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -2795,7 +2973,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>138</v>
       </c>
@@ -2918,13 +3096,13 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3017,7 +3195,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>151</v>
       </c>
@@ -3027,7 +3205,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>86</v>
@@ -3036,13 +3214,13 @@
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>152</v>
@@ -3050,9 +3228,7 @@
       <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3077,64 +3253,64 @@
         <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3153,16 +3329,16 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3200,19 +3376,19 @@
         <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3224,13 +3400,13 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
@@ -3239,9 +3415,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3258,22 +3434,26 @@
         <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3297,13 +3477,13 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>79</v>
@@ -3321,47 +3501,47 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AF14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -3370,21 +3550,23 @@
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3408,13 +3590,13 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3432,71 +3614,71 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3509,7 +3691,7 @@
         <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>79</v>
@@ -3545,36 +3727,36 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3588,24 +3770,26 @@
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -3618,7 +3802,7 @@
         <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>79</v>
@@ -3630,13 +3814,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -3654,10 +3838,10 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
@@ -3672,18 +3856,18 @@
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3691,7 +3875,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>86</v>
@@ -3703,16 +3887,16 @@
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3763,10 +3947,10 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3781,18 +3965,18 @@
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3800,7 +3984,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>86</v>
@@ -3815,15 +3999,17 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -3848,13 +4034,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -3872,10 +4058,10 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3890,18 +4076,18 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3909,30 +4095,32 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -3957,13 +4145,13 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -3981,13 +4169,13 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -3996,21 +4184,21 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4021,7 +4209,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4033,15 +4221,17 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4090,25 +4280,25 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>79</v>
@@ -4117,20 +4307,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4142,17 +4332,15 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4201,25 +4389,25 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>79</v>
@@ -4228,13 +4416,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4247,26 +4435,24 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4314,7 +4500,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4332,7 +4518,7 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
@@ -4341,41 +4527,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4399,13 +4589,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4423,25 +4613,25 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
@@ -4450,9 +4640,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4475,13 +4665,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4508,13 +4698,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4532,7 +4722,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4550,7 +4740,7 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
@@ -4559,9 +4749,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4569,10 +4759,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4581,20 +4771,18 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4619,13 +4807,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4643,13 +4831,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -4658,21 +4846,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4680,13 +4868,13 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4695,13 +4883,13 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4728,13 +4916,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -4752,10 +4940,10 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -4767,21 +4955,21 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4792,7 +4980,7 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -4804,13 +4992,13 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4837,13 +5025,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -4861,13 +5049,13 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
@@ -4879,22 +5067,22 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4910,20 +5098,18 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -4972,7 +5158,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4984,28 +5170,28 @@
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5021,18 +5207,20 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5081,7 +5269,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5093,28 +5281,28 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5127,22 +5315,26 @@
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5190,7 +5382,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5202,13 +5394,13 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
@@ -5217,9 +5409,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5227,10 +5419,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5239,16 +5431,16 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5275,13 +5467,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5299,13 +5491,13 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -5314,21 +5506,21 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5336,7 +5528,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
@@ -5351,13 +5543,13 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5408,10 +5600,10 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5420,13 +5612,13 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
@@ -5441,7 +5633,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5451,25 +5643,25 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5495,13 +5687,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -5519,7 +5711,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>174</v>
+        <v>262</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5531,60 +5723,56 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5608,13 +5796,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -5632,36 +5820,36 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5672,7 +5860,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -5681,20 +5869,18 @@
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -5719,13 +5905,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5743,13 +5929,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -5758,52 +5944,54 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -5852,7 +6040,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5867,21 +6055,21 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5892,10 +6080,10 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -5904,13 +6092,13 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5961,13 +6149,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -5976,25 +6164,25 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>282</v>
+        <v>155</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6010,16 +6198,16 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6070,7 +6258,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6085,21 +6273,21 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6110,29 +6298,27 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6181,13 +6367,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6196,21 +6382,21 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6233,17 +6419,15 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>300</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>301</v>
+        <v>152</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6292,7 +6476,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>299</v>
+        <v>154</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6304,28 +6488,28 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>304</v>
+        <v>155</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>307</v>
+        <v>131</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6341,19 +6525,19 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>308</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>309</v>
+        <v>157</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>310</v>
+        <v>135</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6379,13 +6563,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6403,7 +6587,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>306</v>
+        <v>161</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6415,28 +6599,28 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>314</v>
+        <v>155</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>317</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6449,24 +6633,26 @@
         <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>318</v>
+        <v>132</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6514,7 +6700,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6526,24 +6712,24 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>314</v>
+        <v>129</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6557,7 +6743,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6566,15 +6752,17 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -6599,13 +6787,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -6623,7 +6811,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6638,21 +6826,21 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6675,13 +6863,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>169</v>
+        <v>327</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>170</v>
+        <v>328</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6732,7 +6920,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>171</v>
+        <v>326</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6744,57 +6932,55 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>332</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>333</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -6843,40 +7029,40 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>174</v>
+        <v>331</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>167</v>
+        <v>336</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6889,26 +7075,22 @@
         <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>132</v>
+        <v>340</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -6956,7 +7138,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>179</v>
+        <v>339</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6968,32 +7150,32 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>343</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>86</v>
@@ -7005,19 +7187,19 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7067,10 +7249,10 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -7082,21 +7264,21 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>334</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7119,15 +7301,17 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>208</v>
+        <v>354</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7152,13 +7336,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7176,7 +7360,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7191,32 +7375,32 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>167</v>
+        <v>358</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7225,18 +7409,20 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>341</v>
+        <v>173</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7261,13 +7447,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7285,13 +7471,13 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -7300,25 +7486,25 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7334,19 +7520,19 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7396,7 +7582,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7411,21 +7597,21 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7436,7 +7622,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -7445,20 +7631,18 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -7507,13 +7691,13 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
@@ -7525,7 +7709,7 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
@@ -7534,9 +7718,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7562,10 +7746,10 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7616,7 +7800,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7634,7 +7818,7 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
@@ -7643,9 +7827,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7674,7 +7858,7 @@
         <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>135</v>
@@ -7727,7 +7911,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7745,7 +7929,7 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
@@ -7754,13 +7938,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7782,10 +7966,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>135</v>
@@ -7840,7 +8024,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7867,17 +8051,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>86</v>
@@ -7889,18 +8073,20 @@
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>144</v>
+        <v>383</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -7949,10 +8135,10 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
@@ -7964,21 +8150,21 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>148</v>
+        <v>387</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8001,13 +8187,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>364</v>
+        <v>173</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8034,13 +8220,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8058,7 +8244,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8076,7 +8262,7 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
@@ -8085,9 +8271,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8110,13 +8296,13 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>208</v>
+        <v>395</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8143,13 +8329,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8167,7 +8353,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8185,18 +8371,18 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8207,7 +8393,7 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8219,15 +8405,17 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>208</v>
+        <v>400</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8252,13 +8440,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8276,13 +8464,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -8294,18 +8482,18 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>167</v>
+        <v>404</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8316,7 +8504,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -8328,20 +8516,18 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8365,13 +8551,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -8389,13 +8575,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -8407,18 +8593,18 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8429,7 +8615,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -8441,13 +8627,13 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>391</v>
+        <v>152</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>392</v>
+        <v>153</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8474,13 +8660,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -8498,40 +8684,40 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>390</v>
+        <v>154</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>395</v>
+        <v>155</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8550,15 +8736,17 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>398</v>
+        <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -8583,13 +8771,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -8607,7 +8795,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>397</v>
+        <v>161</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8619,56 +8807,60 @@
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>402</v>
+        <v>155</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>364</v>
+        <v>132</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>405</v>
+        <v>234</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -8716,36 +8908,36 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>404</v>
+        <v>236</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>407</v>
+        <v>129</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8768,13 +8960,13 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8801,31 +8993,31 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -8843,18 +9035,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>414</v>
+        <v>148</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8865,7 +9057,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -8877,17 +9069,15 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>163</v>
+        <v>418</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -8936,13 +9126,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -8954,7 +9144,7 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
@@ -8963,9 +9153,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8988,13 +9178,13 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>169</v>
+        <v>423</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>170</v>
+        <v>424</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9021,13 +9211,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9045,7 +9235,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>171</v>
+        <v>422</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9057,35 +9247,35 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>167</v>
+        <v>427</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9097,17 +9287,15 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>430</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9132,13 +9320,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9156,40 +9344,40 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>174</v>
+        <v>429</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9202,25 +9390,25 @@
         <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>177</v>
+        <v>436</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>178</v>
+        <v>437</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>135</v>
+        <v>438</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>141</v>
+        <v>439</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9245,13 +9433,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9269,7 +9457,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>179</v>
+        <v>435</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9281,24 +9469,24 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>129</v>
+        <v>442</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9306,10 +9494,10 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -9321,13 +9509,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>425</v>
+        <v>173</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9354,13 +9542,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -9378,13 +9566,13 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -9393,21 +9581,21 @@
         <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9418,7 +9606,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -9430,17 +9618,15 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -9465,13 +9651,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -9489,13 +9675,13 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -9507,18 +9693,18 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9541,17 +9727,15 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>208</v>
+        <v>418</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -9576,13 +9760,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -9600,7 +9784,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9618,18 +9802,18 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9652,13 +9836,13 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9685,13 +9869,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -9709,7 +9893,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9727,18 +9911,18 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>275</v>
+        <v>468</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9749,7 +9933,7 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -9761,15 +9945,17 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>448</v>
+        <v>226</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -9818,13 +10004,13 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
@@ -9833,21 +10019,21 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9870,17 +10056,15 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>454</v>
+        <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>455</v>
+        <v>152</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -9929,7 +10113,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>453</v>
+        <v>154</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -9941,22 +10125,924 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AJ77" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM82">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI81">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/output/StructureDefinition-ncdth-encounter.xlsx
+++ b/output/StructureDefinition-ncdth-encounter.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NCD TH Encounter Profile</t>
+    <t>Encounter (NCD TH)</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T23:30:09+07:00</t>
+    <t>2022-02-23T19:35:19+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile สำหรับ Encounter resource</t>
+    <t>ใช้บันทึกข้อมูลการรับบริการสุขภาพ</t>
   </si>
   <si>
     <t>Purpose</t>
